--- a/sky.xlsx
+++ b/sky.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9870"/>
+    <workbookView windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
   <si>
     <t>Просьба комплектацию, целостность и наличие повреждений проверять при получении товара, последующие претензии рассматриваться не будут.
 Детали, имеющие код цвета, и детали электрогрупп возврату не подлежат.</t>
   </si>
   <si>
-    <t>Накладная на отпуск № 1349007304 от 09.09.2021 г.</t>
+    <t>Накладная на отпуск № 1349007421 от 10.09.2021 г.</t>
   </si>
   <si>
     <t>Вся Япония(нал)</t>
@@ -61,9 +61,198 @@
     <t>1</t>
   </si>
   <si>
+    <t>titan</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>202641</t>
+  </si>
+  <si>
+    <t>ДИСК ТОPМОЗНОЙ</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>tiM</t>
   </si>
   <si>
+    <t>FRENKIT</t>
+  </si>
+  <si>
+    <t>254057</t>
+  </si>
+  <si>
+    <t>Ремкомплект суппорта передний HONDA CIVIC VI SERIES  01-95-&gt;02-01 / MITSUBISHI CARISMA</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>tiMq</t>
+  </si>
+  <si>
+    <t>IDEMITSU</t>
+  </si>
+  <si>
+    <t>30011328746</t>
+  </si>
+  <si>
+    <t>Масло мотор SN/GF-5 5W-30 (4 л) F-S</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>timq</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>30015048746</t>
+  </si>
+  <si>
+    <t>Масло мотор SN/CF 5W40 (4 л) F-S</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MITSUBOSHI</t>
+  </si>
+  <si>
+    <t>4PK880</t>
+  </si>
+  <si>
+    <t>РЕМЕНЬ  /4PK885</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6PK1040</t>
+  </si>
+  <si>
+    <t>Ремень поликлин TY 1-2MZ-FE MCU1#, MCU2#, RX300/330/350 (ALT), FO Focus II 1.4/1.6 04-10 (ALT)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>90109A0023</t>
+  </si>
+  <si>
+    <t>БОЛТ/BOLT</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>GOODWILL</t>
+  </si>
+  <si>
+    <t>AG143</t>
+  </si>
+  <si>
+    <t>ФИЛЬТР ВОЗДУШНЫЙ</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>HKT</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Крышка радиатора</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>SAKURA</t>
+  </si>
+  <si>
+    <t>C1809</t>
+  </si>
+  <si>
+    <t>Фильтр масляный KIA SPECTRA 1.6 2004 -   MAZDA 3 1.6 2004 - 2009  MAZDA 3 1.6 2003 - 2009</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>titanMR403485</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>CQM19</t>
+  </si>
+  <si>
+    <t>Рычаг подвески| прав/лев |</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>MASUMA</t>
+  </si>
+  <si>
+    <t>MS1522</t>
+  </si>
+  <si>
+    <t>MS-1522_колодки дисковые задние!\ Toyota Rav4 2.4/3.5i/2.4D 4WD 06&gt;</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>NIBK</t>
+  </si>
+  <si>
+    <t>PN2466</t>
+  </si>
+  <si>
+    <t>Колодки тормозные дисковые NISSAN X-TRAIL 2.0 2007 - 2013  NISSAN TIIDA 1.6 2007 - 2012  NISSAN JUKE</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>RUEI</t>
+  </si>
+  <si>
+    <t>RU201U</t>
+  </si>
+  <si>
+    <t>БОЛТ КРЕПЛЕНИЯ ПРИЕМНОЙ ТРУБЫ ГЛУШИТЕЛЯ СПЕРЕДИ (M10X91X1,25) NISSAN ALMERA (12-Н.В), MICRA (K12E) (</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>SEB041R</t>
+  </si>
+  <si>
+    <t>Наконечник рул прав Mits Pajero V83W 06-</t>
+  </si>
+  <si>
     <t>FA1</t>
   </si>
   <si>
@@ -73,188 +262,31 @@
     <t>Пружина</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>titan</t>
-  </si>
-  <si>
-    <t>NISSAN</t>
-  </si>
-  <si>
-    <t>152089F60A</t>
-  </si>
-  <si>
-    <t>ФИЛЬТР МАСЛЯНЫЙ/FILTER ASSY-OIL</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>15400PLMA02</t>
-  </si>
-  <si>
-    <t>Фильтр масляный</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>SAKURA</t>
-  </si>
-  <si>
-    <t>A1818</t>
-  </si>
-  <si>
-    <t>Фильтр воздушный SUZUKI SX4 1.6 2009 -   NISSAN TEANA 2.5 2008 - 2013  NISSAN X-TRAIL 2.0 2001 - 201</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>GOODWILL</t>
-  </si>
-  <si>
-    <t>AG173CFC</t>
-  </si>
-  <si>
-    <t>Салонные фильтры</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>ZEKKERT</t>
-  </si>
-  <si>
-    <t>BS5432</t>
-  </si>
-  <si>
-    <t>Диск торм. перед. Honda CR-V III  IV 06-  Crosstour 12-</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>tim</t>
-  </si>
-  <si>
-    <t>C1404</t>
-  </si>
-  <si>
-    <t>Фильтр масляный SUZUKI GRAND VITARA 2.0 2005 - 2015  SUZUKI SX4 1.6 2009 -   SUZUKI SX4 1.6 2007 -</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>CTR</t>
-  </si>
-  <si>
-    <t>CKHO19</t>
-  </si>
-  <si>
-    <t>Колодки тормозные дисковые передние Honda CR-V 2.0/2.2 07 (нов арт GK0336) CKHO-19</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>TORCH</t>
-  </si>
-  <si>
-    <t>K6RIU11</t>
-  </si>
-  <si>
-    <t>Свеча зажигания  серия Iridium+U  1 шт. Hyundai Accent III  Elantra  Getz  Lada</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>SE7461</t>
-  </si>
-  <si>
-    <t>Наконечник рулевой тяги внешн. Suzuki Baleno  Swift</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>SANGSIN</t>
-  </si>
-  <si>
-    <t>SP1368</t>
-  </si>
-  <si>
-    <t>Тормозные колодки дисковые</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>SP1765</t>
-  </si>
-  <si>
-    <t>колодки дисковые передние\ Nissan Teana III 2.5 13&gt;</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>SP2028</t>
-  </si>
-  <si>
-    <t>Колодки тормозные дисковые MAZDA: 6 02-, 626 97-02, 323 98-03, PREMACY 01-05</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>SRB040</t>
-  </si>
-  <si>
-    <t>Тяга рул внутр л/пр Mitsubishi Pajero V83W 06-</t>
-  </si>
-  <si>
-    <t>Страница 1 из 2</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>TEX11075</t>
-  </si>
-  <si>
-    <t>Катушка зажигания Mazda 2 (DE)  3 (BL  BK)</t>
+    <t>CLT50</t>
+  </si>
+  <si>
+    <t>Тяга стабилизатора Toyota RAV 4</t>
+  </si>
+  <si>
+    <t>SB4592</t>
+  </si>
+  <si>
+    <t>Шаровая опора нижн ni sunny 86-</t>
+  </si>
+  <si>
+    <t>ZZVF</t>
+  </si>
+  <si>
+    <t>ZVPP013</t>
+  </si>
+  <si>
+    <t>НАПРАВЛЯЮЩАЯ СУППОРТА ТОРМОЗНОГО ЗАДНЕГО TOYOTA LAND CRUISER (BJ73 LJ7 RJ7 HZJ7 PZJ7 KZJ7)(99-01)</t>
   </si>
   <si>
     <t xml:space="preserve">Итого к оплате:   </t>
   </si>
   <si>
     <t>в т. ч. НДС 18%:</t>
-  </si>
-  <si>
-    <t>Обязательным условием всех допускаемых возвратов является целостность и чистота упаковки и Товара. При нарушенной, загрязненной или отсутствующей  упаковке Продавец вправе отказать Покупателю в возврате.
-Возврат Товара возможен в следующих случаях:
-Пересортица:  
-Возврат Товара, при котором в полученной Покупателем упаковке находится Товар, явно несоответствующий заказанному номеру или перепутаны стороны установки Товара «право – лево», либо полученный Покупателем Товар имеет другой номер, отличный от заказанного и при этом полученный номер Товара    не является заменой заказанного. 
-Если Пересортица очевидна, то Покупатель незамедлительно извещает представителя Продавца (менеджера), получает от него подтверждение о рассмотрении и оформлении возврата  и отсылает Товар по адресу местонахождения Продавца. При отсутствии подтверждения со стороны Продавца, либо при произвольной отправке Тов</t>
-  </si>
-  <si>
-    <t>Отпустил _________________</t>
-  </si>
-  <si>
-    <t>Получил _________________</t>
   </si>
   <si>
     <t>С условиями ознакомлен _________________</t>
@@ -269,17 +301,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#&quot; &quot;#&quot; &quot;#0.00"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_ _-;\-* #,##0.00_ _-;_-* &quot;-&quot;??_ _-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00&quot; &quot;_-;\-* #,##0.00&quot; &quot;_-;_-* &quot;-&quot;??&quot; &quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_ _-;\-* #,##0_ _-;_-* &quot;-&quot;_ _-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00&quot; &quot;_-;\-* #,##0.00&quot; &quot;_-;_-* &quot;-&quot;??&quot; &quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0&quot; &quot;_-;\-* #,##0&quot; &quot;_-;_-* &quot;-&quot;&quot; &quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0&quot; &quot;_-;\-* #,##0&quot; &quot;_-;_-* &quot;-&quot;&quot; &quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_ _-;\-* #,##0.00_ _-;_-* &quot;-&quot;??_ _-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,45 +320,52 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -336,11 +376,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,15 +405,26 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,7 +432,8 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,14 +441,74 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,77 +516,12 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="0"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,13 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +572,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,61 +674,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,84 +710,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -681,7 +725,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </left>
       <right/>
       <top style="thin">
@@ -706,7 +750,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </right>
       <top style="thin">
         <color auto="true"/>
@@ -738,7 +782,7 @@
         <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,20 +793,20 @@
         <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </right>
       <top style="thin">
         <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,10 +816,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,58 +827,84 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </left>
       <right/>
       <top style="thin">
         <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </right>
       <top style="thin">
         <color auto="true"/>
@@ -846,16 +916,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
       </right>
       <top style="thin">
         <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color indexed="0"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,6 +1003,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -928,21 +1028,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,96 +1075,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="24" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment wrapText="true"/>
@@ -1141,8 +1226,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="50" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="60" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="50" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="50" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
@@ -1153,121 +1250,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="12" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="12" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="12" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="12" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="14" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="11" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="63" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="63" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="63" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="11" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="11" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="63" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="11" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="63" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="3" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFill="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="63" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="63" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="63" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="11" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="52" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
@@ -1289,12 +1338,54 @@
       <alignment horizontal="right" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="14" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyAlignment="true" quotePrefix="true">
@@ -1312,7 +1403,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="39" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="3" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="true" applyAlignment="true" quotePrefix="true">
@@ -1324,62 +1415,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFill="true" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="11" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="63" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="63" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" quotePrefix="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="63" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="63" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="12" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="12" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="63" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="63" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" quotePrefix="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="50" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="11" applyFill="true" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="11" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="11" applyBorder="true" applyAlignment="true" quotePrefix="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="63" applyBorder="true" applyAlignment="true" quotePrefix="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyBorder="true" applyAlignment="true" quotePrefix="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="50" applyBorder="true" applyAlignment="true" quotePrefix="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="12" applyBorder="true" applyAlignment="true" quotePrefix="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="50" applyBorder="true" applyAlignment="true" quotePrefix="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="12" applyBorder="true" applyAlignment="true" quotePrefix="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="11" applyBorder="true" applyAlignment="true" quotePrefix="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="63" applyBorder="true" applyAlignment="true" quotePrefix="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFill="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="right" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="true" applyFill="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="right" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyAlignment="true" quotePrefix="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="right" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="60" applyAlignment="true" quotePrefix="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="true" quotePrefix="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="68">
@@ -1455,7 +1564,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF00"/>
       <color rgb="00000000"/>
     </mruColors>
   </colors>
@@ -1470,7 +1578,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007-2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1478,39 +1586,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Cambria-Calibri">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1580,7 +1688,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007-2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1589,131 +1697,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
         <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="true">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1725,167 +1862,100 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28:X28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="1.56666666666667" style="1" customWidth="true"/>
-    <col min="2" max="2" width="0.85" style="1" customWidth="true"/>
-    <col min="3" max="3" width="3.13333333333333" style="1" customWidth="true"/>
+    <col min="1" max="1" width="1.57333333333333" style="1" customWidth="true"/>
+    <col min="2" max="2" width="0.853333333333333" style="1" customWidth="true"/>
+    <col min="3" max="3" width="3.14" style="1" customWidth="true"/>
     <col min="4" max="4" width="4" style="1" customWidth="true"/>
-    <col min="5" max="6" width="0.85" style="1" customWidth="true"/>
-    <col min="7" max="7" width="5.425" style="1" customWidth="true"/>
-    <col min="8" max="8" width="10.5666666666667" style="1" customWidth="true"/>
-    <col min="9" max="9" width="1.56666666666667" style="1" customWidth="true"/>
-    <col min="10" max="10" width="6.85" style="1" customWidth="true"/>
-    <col min="11" max="11" width="7.28333333333333" style="1" customWidth="true"/>
-    <col min="12" max="12" width="11.5666666666667" style="1" customWidth="true"/>
+    <col min="5" max="6" width="0.853333333333333" style="1" customWidth="true"/>
+    <col min="7" max="7" width="5.42666666666667" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5733333333333" style="1" customWidth="true"/>
+    <col min="9" max="9" width="1.57333333333333" style="1" customWidth="true"/>
+    <col min="10" max="10" width="6.85333333333333" style="1" customWidth="true"/>
+    <col min="11" max="11" width="7.28666666666667" style="1" customWidth="true"/>
+    <col min="12" max="12" width="11.5733333333333" style="1" customWidth="true"/>
     <col min="13" max="13" width="12" style="1" customWidth="true"/>
-    <col min="14" max="14" width="4.425" style="1" customWidth="true"/>
-    <col min="15" max="15" width="2.56666666666667" style="1" customWidth="true"/>
-    <col min="16" max="16" width="7.28333333333333" style="1" customWidth="true"/>
-    <col min="17" max="17" width="2.13333333333333" style="1" customWidth="true"/>
-    <col min="18" max="18" width="0.85" style="1" customWidth="true"/>
-    <col min="19" max="19" width="2.13333333333333" style="1" customWidth="true"/>
-    <col min="20" max="20" width="5.85" style="1" customWidth="true"/>
-    <col min="21" max="21" width="4.425" style="1" customWidth="true"/>
-    <col min="22" max="22" width="5.85" style="1" customWidth="true"/>
-    <col min="23" max="23" width="1.56666666666667" style="1" customWidth="true"/>
-    <col min="24" max="24" width="0.85" style="1" customWidth="true"/>
-    <col min="25" max="16384" width="9.13333333333333" style="1"/>
+    <col min="14" max="14" width="4.42666666666667" style="1" customWidth="true"/>
+    <col min="15" max="15" width="2.57333333333333" style="1" customWidth="true"/>
+    <col min="16" max="16" width="7.28666666666667" style="1" customWidth="true"/>
+    <col min="17" max="17" width="2.14" style="1" customWidth="true"/>
+    <col min="18" max="18" width="0.853333333333333" style="1" customWidth="true"/>
+    <col min="19" max="19" width="2.14" style="1" customWidth="true"/>
+    <col min="20" max="20" width="5.85333333333333" style="1" customWidth="true"/>
+    <col min="21" max="21" width="4.42666666666667" style="1" customWidth="true"/>
+    <col min="22" max="22" width="5.85333333333333" style="1" customWidth="true"/>
+    <col min="23" max="23" width="1.57333333333333" style="1" customWidth="true"/>
+    <col min="24" max="24" width="0.853333333333333" style="1" customWidth="true"/>
+    <col min="25" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="true" spans="9:9">
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="74" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="true" spans="1:22">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1">
-        <v>18</v>
-      </c>
-      <c r="S2" s="1">
-        <v>19</v>
-      </c>
-      <c r="T2" s="1">
-        <v>20</v>
-      </c>
-      <c r="U2" s="1">
-        <v>21</v>
-      </c>
-      <c r="V2" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customHeight="true" spans="2:2">
-      <c r="B3" s="73" t="s">
+    <row r="2" ht="5.85" customHeight="true"/>
+    <row r="3" ht="14.25" customHeight="true" spans="2:2">
+      <c r="B3" s="75" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="2.85" customHeight="true"/>
     <row r="5" ht="5.85" customHeight="true" spans="7:7">
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="76" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="11.45" customHeight="true" spans="2:2">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="77" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="5.85" customHeight="true"/>
     <row r="8" ht="2.85" customHeight="true"/>
     <row r="9" ht="31.5" customHeight="true" spans="1:24">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="79" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="78" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="78" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="76" t="s">
+      <c r="L9" s="78" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="78" t="s">
+      <c r="P9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76" t="s">
+      <c r="Q9" s="78" t="s">
         <v>10</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="76" t="s">
+      <c r="U9" s="78" t="s">
         <v>11</v>
       </c>
       <c r="V9" s="5"/>
@@ -1893,752 +1963,944 @@
       <c r="X9" s="6"/>
     </row>
     <row r="10" ht="11.45" customHeight="true" spans="1:24">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="81" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="82" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="83" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="82" t="s">
+      <c r="J10" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="83" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="85" t="s">
         <v>16</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="84" t="s">
+      <c r="P10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="47">
-        <v>29</v>
-      </c>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="64">
-        <v>58</v>
-      </c>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="66"/>
+      <c r="Q10" s="52">
+        <v>942</v>
+      </c>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="52">
+        <v>1884</v>
+      </c>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="54"/>
     </row>
-    <row r="11" ht="11.45" customHeight="true" spans="1:24">
-      <c r="A11" s="79" t="s">
+    <row r="11" ht="18.95" customHeight="true" spans="1:24">
+      <c r="A11" s="81" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="80" t="s">
-        <v>13</v>
+      <c r="D11" s="82" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="81" t="s">
-        <v>14</v>
+      <c r="H11" s="83" t="s">
+        <v>19</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="83" t="s">
-        <v>16</v>
+      <c r="J11" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="85" t="s">
+        <v>21</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="47">
-        <v>29</v>
-      </c>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="64">
-        <v>58</v>
-      </c>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="66"/>
+      <c r="P11" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="52">
+        <v>145</v>
+      </c>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="52">
+        <v>145</v>
+      </c>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="54"/>
     </row>
     <row r="12" ht="11.45" customHeight="true" spans="1:24">
-      <c r="A12" s="79" t="s">
-        <v>18</v>
+      <c r="A12" s="81" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="80" t="s">
-        <v>19</v>
+      <c r="D12" s="82" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="81" t="s">
-        <v>20</v>
+      <c r="H12" s="83" t="s">
+        <v>24</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="83" t="s">
-        <v>22</v>
+      <c r="J12" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="85" t="s">
+        <v>26</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="47">
-        <v>300</v>
-      </c>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="64">
-        <v>300</v>
-      </c>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="66"/>
+      <c r="Q12" s="52">
+        <v>1617</v>
+      </c>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="52">
+        <v>1617</v>
+      </c>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="54"/>
     </row>
     <row r="13" ht="11.45" customHeight="true" spans="1:24">
-      <c r="A13" s="79" t="s">
-        <v>23</v>
+      <c r="A13" s="81" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="80" t="s">
-        <v>19</v>
+      <c r="D13" s="82" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="81" t="s">
+      <c r="H13" s="83" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="82" t="s">
+      <c r="J13" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="83" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="85" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="47">
-        <v>385</v>
-      </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="64">
-        <v>1155</v>
-      </c>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="68"/>
+      <c r="P13" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="52">
+        <v>1617</v>
+      </c>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="52">
+        <v>1617</v>
+      </c>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="56"/>
     </row>
-    <row r="14" ht="27.6" customHeight="true" spans="1:24">
-      <c r="A14" s="79" t="s">
-        <v>27</v>
+    <row r="14" ht="11.45" customHeight="true" spans="1:24">
+      <c r="A14" s="81" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="80" t="s">
-        <v>19</v>
+      <c r="D14" s="82" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="81" t="s">
-        <v>28</v>
+      <c r="H14" s="83" t="s">
+        <v>24</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="83" t="s">
-        <v>30</v>
+      <c r="J14" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="85" t="s">
+        <v>32</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="85" t="s">
+      <c r="P14" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="47">
-        <v>276</v>
-      </c>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="64">
-        <v>276</v>
-      </c>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="68"/>
+      <c r="Q14" s="52">
+        <v>1612</v>
+      </c>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="52">
+        <v>1612</v>
+      </c>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="56"/>
     </row>
     <row r="15" ht="11.45" customHeight="true" spans="1:24">
-      <c r="A15" s="79" t="s">
-        <v>31</v>
+      <c r="A15" s="81" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="80" t="s">
-        <v>19</v>
+      <c r="D15" s="82" t="s">
+        <v>18</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="81" t="s">
-        <v>32</v>
+      <c r="H15" s="83" t="s">
+        <v>34</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="83" t="s">
-        <v>34</v>
+      <c r="J15" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="85" t="s">
+        <v>36</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="85" t="s">
+      <c r="P15" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="47">
-        <v>306</v>
-      </c>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="64">
-        <v>306</v>
-      </c>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="68"/>
+      <c r="Q15" s="52">
+        <v>265</v>
+      </c>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="52">
+        <v>265</v>
+      </c>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="56"/>
     </row>
-    <row r="16" ht="18.95" customHeight="true" spans="1:24">
-      <c r="A16" s="79" t="s">
-        <v>35</v>
+    <row r="16" ht="27.6" customHeight="true" spans="1:24">
+      <c r="A16" s="81" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="80" t="s">
-        <v>13</v>
+      <c r="D16" s="82" t="s">
+        <v>18</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="86" t="s">
-        <v>36</v>
+      <c r="H16" s="87" t="s">
+        <v>34</v>
       </c>
       <c r="I16" s="14"/>
-      <c r="J16" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="87" t="s">
+      <c r="J16" s="84" t="s">
         <v>38</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="88" t="s">
+        <v>39</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="52">
-        <v>1845</v>
-      </c>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="64">
-        <v>3690</v>
-      </c>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="68"/>
+      <c r="P16" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="57">
+        <v>469</v>
+      </c>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="52">
+        <v>469</v>
+      </c>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="56"/>
     </row>
-    <row r="17" ht="27.6" customHeight="true" spans="1:24">
-      <c r="A17" s="88" t="s">
-        <v>39</v>
+    <row r="17" ht="11.45" customHeight="true" spans="1:24">
+      <c r="A17" s="89" t="s">
+        <v>40</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="80" t="s">
-        <v>40</v>
+      <c r="D17" s="82" t="s">
+        <v>30</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="89" t="s">
-        <v>28</v>
+      <c r="H17" s="90" t="s">
+        <v>41</v>
       </c>
       <c r="I17" s="17"/>
-      <c r="J17" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="90" t="s">
+      <c r="J17" s="84" t="s">
         <v>42</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="91" t="s">
+        <v>43</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="55">
-        <v>155</v>
-      </c>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="64">
-        <v>155</v>
-      </c>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="68"/>
+      <c r="P17" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="60">
+        <v>109</v>
+      </c>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="52">
+        <v>436</v>
+      </c>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="56"/>
     </row>
-    <row r="18" ht="18.95" customHeight="true" spans="1:24">
-      <c r="A18" s="91" t="s">
-        <v>43</v>
+    <row r="18" ht="11.45" customHeight="true" spans="1:24">
+      <c r="A18" s="92" t="s">
+        <v>44</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="82" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="89" t="s">
-        <v>44</v>
+      <c r="H18" s="90" t="s">
+        <v>45</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="90" t="s">
+      <c r="J18" s="84" t="s">
         <v>46</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="91" t="s">
+        <v>47</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="17"/>
-      <c r="P18" s="92" t="s">
+      <c r="P18" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="55">
-        <v>923</v>
-      </c>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="64">
-        <v>923</v>
-      </c>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="68"/>
+      <c r="Q18" s="60">
+        <v>273</v>
+      </c>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="52">
+        <v>273</v>
+      </c>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="56"/>
     </row>
-    <row r="19" ht="18.95" customHeight="true" spans="1:24">
-      <c r="A19" s="91" t="s">
-        <v>47</v>
+    <row r="19" ht="11.45" customHeight="true" spans="1:24">
+      <c r="A19" s="92" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="80" t="s">
-        <v>13</v>
+      <c r="D19" s="82" t="s">
+        <v>18</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="89" t="s">
-        <v>48</v>
+      <c r="H19" s="90" t="s">
+        <v>49</v>
       </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="90" t="s">
+      <c r="J19" s="84" t="s">
         <v>50</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="91" t="s">
+        <v>51</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="92" t="s">
+      <c r="P19" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="55">
-        <v>215</v>
-      </c>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="64">
-        <v>215</v>
-      </c>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="68"/>
+      <c r="Q19" s="60">
+        <v>199</v>
+      </c>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="52">
+        <v>199</v>
+      </c>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="56"/>
     </row>
-    <row r="20" ht="18.95" customHeight="true" spans="1:24">
-      <c r="A20" s="91" t="s">
-        <v>51</v>
+    <row r="20" ht="27.6" customHeight="true" spans="1:24">
+      <c r="A20" s="92" t="s">
+        <v>52</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="80" t="s">
-        <v>19</v>
+      <c r="D20" s="82" t="s">
+        <v>18</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="89" t="s">
-        <v>52</v>
+      <c r="H20" s="90" t="s">
+        <v>53</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="90" t="s">
+      <c r="J20" s="84" t="s">
         <v>54</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="91" t="s">
+        <v>55</v>
       </c>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="17"/>
       <c r="P20" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="55">
-        <v>501</v>
-      </c>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="64">
-        <v>1002</v>
-      </c>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="68"/>
+        <v>12</v>
+      </c>
+      <c r="Q20" s="60">
+        <v>154</v>
+      </c>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="52">
+        <v>154</v>
+      </c>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="56"/>
     </row>
-    <row r="21" ht="11.45" customHeight="true" spans="1:24">
-      <c r="A21" s="91" t="s">
-        <v>55</v>
+    <row r="21" ht="21.2" customHeight="true" spans="1:24">
+      <c r="A21" s="92" t="s">
+        <v>56</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="80" t="s">
-        <v>13</v>
+      <c r="D21" s="82" t="s">
+        <v>57</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="89" t="s">
-        <v>56</v>
+      <c r="H21" s="90" t="s">
+        <v>58</v>
       </c>
       <c r="I21" s="17"/>
-      <c r="J21" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="90" t="s">
-        <v>58</v>
+      <c r="J21" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="91" t="s">
+        <v>60</v>
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="55">
-        <v>739</v>
-      </c>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="64">
-        <v>739</v>
-      </c>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="68"/>
+      <c r="P21" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="60">
+        <v>768</v>
+      </c>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="52">
+        <v>1536</v>
+      </c>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="56"/>
     </row>
     <row r="22" ht="18.95" customHeight="true" spans="1:24">
-      <c r="A22" s="91" t="s">
-        <v>59</v>
+      <c r="A22" s="92" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="80" t="s">
-        <v>40</v>
+      <c r="D22" s="82" t="s">
+        <v>18</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="89" t="s">
-        <v>56</v>
+      <c r="H22" s="90" t="s">
+        <v>62</v>
       </c>
       <c r="I22" s="17"/>
-      <c r="J22" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="90" t="s">
-        <v>61</v>
+      <c r="J22" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="92" t="s">
+      <c r="P22" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Q22" s="55">
-        <v>1071</v>
-      </c>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="64">
-        <v>1071</v>
-      </c>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="66"/>
+      <c r="Q22" s="60">
+        <v>755</v>
+      </c>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="52">
+        <v>755</v>
+      </c>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="54"/>
     </row>
-    <row r="23" ht="18.95" customHeight="true" spans="1:24">
-      <c r="A23" s="91" t="s">
-        <v>62</v>
+    <row r="23" ht="27.6" customHeight="true" spans="1:24">
+      <c r="A23" s="92" t="s">
+        <v>65</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="80" t="s">
-        <v>40</v>
+      <c r="D23" s="82" t="s">
+        <v>13</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="89" t="s">
-        <v>56</v>
+      <c r="H23" s="90" t="s">
+        <v>66</v>
       </c>
       <c r="I23" s="19"/>
-      <c r="J23" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="90" t="s">
-        <v>64</v>
+      <c r="J23" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="91" t="s">
+        <v>68</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="92" t="s">
+      <c r="P23" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="55">
-        <v>1001</v>
-      </c>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="64">
-        <v>1001</v>
-      </c>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="66"/>
+      <c r="Q23" s="60">
+        <v>1150</v>
+      </c>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="52">
+        <v>1150</v>
+      </c>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="54"/>
     </row>
-    <row r="24" ht="11.45" customHeight="true" spans="1:24">
-      <c r="A24" s="91" t="s">
-        <v>65</v>
+    <row r="24" ht="27.6" customHeight="true" spans="1:24">
+      <c r="A24" s="92" t="s">
+        <v>69</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="89" t="s">
-        <v>52</v>
+        <v>18</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="90" t="s">
+        <v>70</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="90" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="91" t="s">
+        <v>72</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="19"/>
       <c r="P24" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="60">
+        <v>109</v>
+      </c>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="57">
+        <v>218</v>
+      </c>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="67"/>
+    </row>
+    <row r="25" ht="0.6" hidden="true" customHeight="true" spans="17:24">
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+    </row>
+    <row r="26" ht="11.45" customHeight="true" spans="1:24">
+      <c r="A26" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Q24" s="55">
-        <v>846</v>
-      </c>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="69">
-        <v>846</v>
-      </c>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="71"/>
+      <c r="Q26" s="57">
+        <v>1057</v>
+      </c>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="57">
+        <v>1057</v>
+      </c>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="67"/>
     </row>
-    <row r="25" ht="25.7" customHeight="true"/>
-    <row r="26" ht="8.45" customHeight="true" spans="15:15">
-      <c r="O26" s="96" t="s">
-        <v>68</v>
-      </c>
+    <row r="27" ht="11.45" customHeight="true" spans="1:24">
+      <c r="A27" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="52">
+        <v>29</v>
+      </c>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="52">
+        <v>116</v>
+      </c>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="54"/>
     </row>
-    <row r="27" ht="0.6" customHeight="true"/>
-    <row r="28" ht="11.45" customHeight="true" spans="1:24">
-      <c r="A28" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="94" t="s">
+    <row r="28" ht="8.45" customHeight="true" spans="1:24">
+      <c r="A28" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="92" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="86" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="52">
-        <v>1139</v>
-      </c>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="69">
-        <v>1139</v>
-      </c>
-      <c r="V28" s="70"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="71"/>
+        <v>1617</v>
+      </c>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="52">
+        <v>1617</v>
+      </c>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="54"/>
     </row>
-    <row r="29" ht="11.45" customHeight="true"/>
-    <row r="30" ht="11.45" customHeight="true" spans="14:20">
-      <c r="N30" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="T30" s="62">
-        <v>12934</v>
-      </c>
+    <row r="29" ht="11.45" customHeight="true" spans="1:24">
+      <c r="A29" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="52">
+        <v>611</v>
+      </c>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="72">
+        <v>1222</v>
+      </c>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="54"/>
     </row>
-    <row r="31" ht="8.45" customHeight="true"/>
-    <row r="32" ht="11.45" customHeight="true" spans="15:20">
-      <c r="O32" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="T32" s="63">
-        <v>1972.98</v>
-      </c>
+    <row r="30" ht="11.45" customHeight="true" spans="1:24">
+      <c r="A30" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="52">
+        <v>667</v>
+      </c>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="72">
+        <v>1334</v>
+      </c>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="54"/>
     </row>
-    <row r="33" ht="11.45" customHeight="true"/>
-    <row r="34" ht="350.85" customHeight="true" spans="3:3">
-      <c r="C34" s="99" t="s">
-        <v>74</v>
-      </c>
+    <row r="31" ht="20" customHeight="true" spans="1:24">
+      <c r="A31" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="57">
+        <v>90</v>
+      </c>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="73">
+        <v>360</v>
+      </c>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="67"/>
     </row>
-    <row r="35" ht="11.45" customHeight="true"/>
-    <row r="36" ht="2.85" customHeight="true" spans="5:5">
-      <c r="E36" s="100" t="s">
-        <v>75</v>
+    <row r="32" ht="11.45" customHeight="true"/>
+    <row r="33" ht="2.85" customHeight="true" spans="14:20">
+      <c r="N33" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="T33" s="70">
+        <v>4649</v>
       </c>
     </row>
-    <row r="37" ht="11.45" customHeight="true" spans="13:16">
-      <c r="M37" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
+    <row r="34" ht="11.45" customHeight="true"/>
+    <row r="35" ht="11.45" customHeight="true" spans="15:20">
+      <c r="O35" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="T35" s="71">
+        <v>709.17</v>
+      </c>
     </row>
-    <row r="38" ht="11.45" customHeight="true"/>
-    <row r="39" ht="11.45" customHeight="true" spans="13:21">
-      <c r="M39" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
+    <row r="36" ht="11.45" customHeight="true" spans="13:21">
+      <c r="M36" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
     </row>
-    <row r="40" ht="321.95" customHeight="true"/>
-    <row r="41" ht="8.45" customHeight="true" spans="15:22">
-      <c r="O41" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
+    <row r="37" ht="321.95" customHeight="true"/>
+    <row r="38" ht="8.45" customHeight="true" spans="15:22">
+      <c r="O38" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
     </row>
-    <row r="42" ht="11.45" customHeight="true"/>
+    <row r="39" ht="11.45" customHeight="true"/>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="164">
     <mergeCell ref="I1:V1"/>
     <mergeCell ref="B3:V3"/>
     <mergeCell ref="B6:E6"/>
@@ -2754,7 +3016,20 @@
     <mergeCell ref="L24:O24"/>
     <mergeCell ref="Q24:T24"/>
     <mergeCell ref="U24:X24"/>
-    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:X27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="H28:I28"/>
@@ -2762,23 +3037,41 @@
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="Q28:T28"/>
     <mergeCell ref="U28:X28"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="C34:V34"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M39:U39"/>
-    <mergeCell ref="O41:V41"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="M36:U36"/>
+    <mergeCell ref="O38:V38"/>
     <mergeCell ref="G5:V7"/>
-    <mergeCell ref="E36:J37"/>
   </mergeCells>
   <pageMargins left="0.361111111111111" right="0.361111111111111" top="0.361111111111111" bottom="0.361111111111111" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="27" max="255" man="1"/>
-    <brk id="42" max="255" man="1"/>
+    <brk id="25" max="255" man="1"/>
+    <brk id="39" max="255" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -2792,7 +3085,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2808,7 +3101,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
